--- a/input.xlsx
+++ b/input.xlsx
@@ -15,75 +15,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t>Danny.Rhinehart@akerman.com</t>
-  </si>
-  <si>
-    <t>David.Wimberly@akerman.com</t>
-  </si>
-  <si>
-    <t>bill.costello@akerman.com</t>
-  </si>
-  <si>
-    <t>andrew.smulian@akerman.com </t>
-  </si>
-  <si>
-    <t>Brian.Urbanski@alliedsolutions.net</t>
-  </si>
-  <si>
-    <t>David.Hilger@alliedsolutions.net</t>
-  </si>
-  <si>
-    <t>Brett.Mitchell@alliedsolutions.net</t>
-  </si>
-  <si>
-    <t>jeff.wisdorf@alliedsolutions.net</t>
-  </si>
-  <si>
-    <t>pete.hilger@alliedsolutions.net</t>
-  </si>
-  <si>
-    <t>mike.mcgrath@aclines.com</t>
-  </si>
-  <si>
-    <t>ShaneW@angieslist.com</t>
-  </si>
-  <si>
-    <t>markh@angieslist.com</t>
-  </si>
-  <si>
-    <t>EMcManis@armellini.com</t>
-  </si>
-  <si>
-    <t>jjackson@armellini.com</t>
-  </si>
-  <si>
-    <t>elima@armellini.com</t>
-  </si>
-  <si>
-    <t>hhann@arnoldtrans.com</t>
-  </si>
-  <si>
-    <t>tsmith@arnoldtrans.com</t>
-  </si>
-  <si>
-    <t>dmendenhall@arnoldtrans.com</t>
-  </si>
-  <si>
-    <t>ccarter@arnoldtrans.com</t>
-  </si>
-  <si>
-    <t>sgrace@arnoldtrans.com</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>chandana@eggheadcreative.com</t>
+  </si>
+  <si>
+    <t>prem@eggheadcreative.com</t>
+  </si>
+  <si>
+    <t>vasavi@eggheadcreative.com</t>
+  </si>
+  <si>
+    <t>divya@eggheadcreative.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt formatCode="GENERAL" numFmtId="164"/>
-    <numFmt formatCode="GENERAL" numFmtId="165"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -168,11 +119,11 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="5" numFmtId="165" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -253,15 +204,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A20"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1:A20"/>
+      <selection activeCell="A5" activeCellId="0" pane="topLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="44.7333333333333"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="14.7137254901961"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="44.9607843137255"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="14.7882352941176"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.75" outlineLevel="0" r="1">
@@ -284,123 +235,12 @@
         <v>3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.75" outlineLevel="0" r="5">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="6">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="7">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="8">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="9">
-      <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="10">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="11">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="12">
-      <c r="A12" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="13">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="14">
-      <c r="A14" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="15">
-      <c r="A15" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="16">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="17">
-      <c r="A17" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="18">
-      <c r="A18" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="19">
-      <c r="A19" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="20">
-      <c r="A20" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="A4:A20,A24:A30">
-    <cfRule dxfId="0" operator="duplicateValues" priority="1" type="cellIs">
-      <formula/>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A21:A23">
-    <cfRule dxfId="0" operator="duplicateValues" priority="1" type="cellIs">
-      <formula/>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A3">
-    <cfRule dxfId="0" operator="duplicateValues" priority="1" type="cellIs">
-      <formula/>
-    </cfRule>
-  </conditionalFormatting>
   <hyperlinks>
-    <hyperlink display="Danny.Rhinehart@akerman.com" ref="A1" r:id="rId1"/>
-    <hyperlink display="David.Wimberly@akerman.com" ref="A2" r:id="rId2"/>
-    <hyperlink display="bill.costello@akerman.com" ref="A3" r:id="rId3"/>
-    <hyperlink display="andrew.smulian@akerman.com " ref="A4" r:id="rId4"/>
-    <hyperlink display="Brian.Urbanski@alliedsolutions.net" ref="A5" r:id="rId5"/>
-    <hyperlink display="David.Hilger@alliedsolutions.net" ref="A6" r:id="rId6"/>
-    <hyperlink display="Brett.Mitchell@alliedsolutions.net" ref="A7" r:id="rId7"/>
-    <hyperlink display="jeff.wisdorf@alliedsolutions.net" ref="A8" r:id="rId8"/>
-    <hyperlink display="pete.hilger@alliedsolutions.net" ref="A9" r:id="rId9"/>
-    <hyperlink display="mike.mcgrath@aclines.com" ref="A10" r:id="rId10"/>
-    <hyperlink display="ShaneW@angieslist.com" ref="A11" r:id="rId11"/>
-    <hyperlink display="markh@angieslist.com" ref="A12" r:id="rId12"/>
-    <hyperlink display="EMcManis@armellini.com" ref="A13" r:id="rId13"/>
-    <hyperlink display="jjackson@armellini.com" ref="A14" r:id="rId14"/>
-    <hyperlink display="elima@armellini.com" ref="A15" r:id="rId15"/>
-    <hyperlink display="hhann@arnoldtrans.com" ref="A16" r:id="rId16"/>
-    <hyperlink display="tsmith@arnoldtrans.com" ref="A17" r:id="rId17"/>
-    <hyperlink display="dmendenhall@arnoldtrans.com" ref="A18" r:id="rId18"/>
-    <hyperlink display="ccarter@arnoldtrans.com" ref="A19" r:id="rId19"/>
-    <hyperlink display="sgrace@arnoldtrans.com" ref="A20" r:id="rId20"/>
+    <hyperlink display="chandana@eggheadcreative.com" ref="A1" r:id="rId1"/>
+    <hyperlink display="prem@eggheadcreative.com" ref="A2" r:id="rId2"/>
+    <hyperlink display="vasavi@eggheadcreative.com" ref="A3" r:id="rId3"/>
+    <hyperlink display="divya@eggheadcreative.com" ref="A4" r:id="rId4"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
